--- a/data/all_points_2020-2022.xlsx
+++ b/data/all_points_2020-2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -525,15 +525,6 @@
     <t>ST</t>
   </si>
   <si>
-    <t>NT_left_slope</t>
-  </si>
-  <si>
-    <t>NT_moraine</t>
-  </si>
-  <si>
-    <t>NT_right_slope</t>
-  </si>
-  <si>
     <t>Au</t>
   </si>
   <si>
@@ -600,33 +591,6 @@
     <t>DAP10</t>
   </si>
   <si>
-    <t>NT1</t>
-  </si>
-  <si>
-    <t>NT2</t>
-  </si>
-  <si>
-    <t>NT3</t>
-  </si>
-  <si>
-    <t>NT4</t>
-  </si>
-  <si>
-    <t>NT5</t>
-  </si>
-  <si>
-    <t>NT6</t>
-  </si>
-  <si>
-    <t>NT7</t>
-  </si>
-  <si>
-    <t>NT8</t>
-  </si>
-  <si>
-    <t>NT9</t>
-  </si>
-  <si>
     <t>Seven</t>
   </si>
   <si>
@@ -652,6 +616,39 @@
   </si>
   <si>
     <t>5,71</t>
+  </si>
+  <si>
+    <t>NV_left_slope</t>
+  </si>
+  <si>
+    <t>NV_moraine</t>
+  </si>
+  <si>
+    <t>NV1</t>
+  </si>
+  <si>
+    <t>NV2</t>
+  </si>
+  <si>
+    <t>NV3</t>
+  </si>
+  <si>
+    <t>NV4</t>
+  </si>
+  <si>
+    <t>NV5</t>
+  </si>
+  <si>
+    <t>NV6</t>
+  </si>
+  <si>
+    <t>NV7</t>
+  </si>
+  <si>
+    <t>NV8</t>
+  </si>
+  <si>
+    <t>NV9</t>
   </si>
 </sst>
 </file>
@@ -661,12 +658,20 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,20 +735,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1028,10 +1034,10 @@
   <dimension ref="A1:AW125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L111" sqref="L111"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,13 +1156,13 @@
         <v>35</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>36</v>
@@ -1293,10 +1299,10 @@
         <v>48</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AM2" s="8" t="s">
         <v>47</v>
@@ -1342,8 +1348,8 @@
       <c r="C3" s="4">
         <v>43.228030000384251</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>168</v>
+      <c r="D3" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E3" s="4">
         <v>4.1040000000000001</v>
@@ -1454,8 +1460,8 @@
       <c r="C4" s="4">
         <v>43.227588999832513</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>168</v>
+      <c r="D4" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E4" s="4">
         <v>0.05</v>
@@ -1566,8 +1572,8 @@
       <c r="C5" s="4">
         <v>43.228735999666704</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>168</v>
+      <c r="D5" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E5" s="4">
         <v>1.07</v>
@@ -1678,8 +1684,8 @@
       <c r="C6" s="4">
         <v>43.229299000448577</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>168</v>
+      <c r="D6" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E6" s="4">
         <v>0.95</v>
@@ -1794,8 +1800,8 @@
       <c r="C7" s="4">
         <v>43.229126999711298</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>168</v>
+      <c r="D7" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E7" s="4">
         <v>3.26</v>
@@ -1904,8 +1910,8 @@
       <c r="C8" s="4">
         <v>43.229760000123967</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>168</v>
+      <c r="D8" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E8" s="4">
         <v>0.24</v>
@@ -2008,8 +2014,8 @@
       <c r="C9" s="4">
         <v>43.230735000120212</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>168</v>
+      <c r="D9" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E9" s="4">
         <v>4.62</v>
@@ -2126,8 +2132,8 @@
       <c r="C10" s="4">
         <v>43.231610000001517</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>168</v>
+      <c r="D10" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E10" s="4">
         <v>14.27</v>
@@ -2240,8 +2246,8 @@
       <c r="C11" s="4">
         <v>43.232109999676823</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>168</v>
+      <c r="D11" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="E11" s="4">
         <v>8.3000000000000004E-2</v>
@@ -2349,7 +2355,7 @@
         <v>43.233797000131517</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E12" s="4">
         <v>1.26</v>
@@ -2461,7 +2467,7 @@
         <v>43.229892999962033</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4">
         <v>0.37</v>
@@ -2565,7 +2571,7 @@
         <v>43.229780000146953</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E14" s="4">
         <v>0.125</v>
@@ -2687,7 +2693,7 @@
         <v>43.229155000103219</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E15" s="4">
         <v>0.26</v>
@@ -2805,7 +2811,7 @@
         <v>43.228182000199183</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E16" s="4">
         <v>0.23</v>
@@ -2911,7 +2917,7 @@
         <v>43.227299262550957</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E17" s="4">
         <v>0.05</v>
@@ -3127,7 +3133,7 @@
         <v>43.229045000426481</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E19" s="4">
         <v>20.54</v>
@@ -3237,7 +3243,7 @@
         <v>43.229580999963218</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E20" s="4">
         <v>1.03</v>
@@ -4630,7 +4636,7 @@
       </c>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
@@ -4717,10 +4723,10 @@
         <v>10</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AP33" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
@@ -4823,10 +4829,10 @@
         <v>7</v>
       </c>
       <c r="AO34" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP34" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
@@ -4930,7 +4936,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
@@ -5022,7 +5028,7 @@
       </c>
       <c r="AO36" s="4"/>
       <c r="AP36" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
@@ -5125,10 +5131,10 @@
         <v>13</v>
       </c>
       <c r="AO37" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AP37" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
@@ -5225,10 +5231,10 @@
         <v>11</v>
       </c>
       <c r="AO38" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP38" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
@@ -5321,10 +5327,10 @@
         <v>15</v>
       </c>
       <c r="AO39" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP39" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
@@ -5508,7 +5514,7 @@
       </c>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
@@ -5598,7 +5604,7 @@
       </c>
       <c r="AO42" s="4"/>
       <c r="AP42" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
@@ -5691,13 +5697,13 @@
         <v>10</v>
       </c>
       <c r="AO43" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP43" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AQ43" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR43" s="4"/>
       <c r="AS43" s="4">
@@ -5790,7 +5796,7 @@
       </c>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="4"/>
@@ -5879,10 +5885,10 @@
         <v>13</v>
       </c>
       <c r="AO45" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP45" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4"/>
@@ -5976,7 +5982,7 @@
       </c>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
@@ -6069,10 +6075,10 @@
         <v>8</v>
       </c>
       <c r="AO47" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AP47" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
@@ -6167,10 +6173,10 @@
         <v>13</v>
       </c>
       <c r="AO48" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP48" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
@@ -6265,10 +6271,10 @@
         <v>5</v>
       </c>
       <c r="AO49" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP49" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
@@ -6356,7 +6362,7 @@
       </c>
       <c r="AO50" s="4"/>
       <c r="AP50" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
@@ -6451,10 +6457,10 @@
         <v>9</v>
       </c>
       <c r="AO51" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP51" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ51" s="4"/>
       <c r="AR51" s="4"/>
@@ -6543,10 +6549,10 @@
         <v>15</v>
       </c>
       <c r="AO52" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP52" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
@@ -6636,7 +6642,7 @@
       </c>
       <c r="AO53" s="4"/>
       <c r="AP53" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ53" s="4"/>
       <c r="AR53" s="4"/>
@@ -6729,10 +6735,10 @@
         <v>8</v>
       </c>
       <c r="AO54" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP54" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ54" s="4"/>
       <c r="AR54" s="4"/>
@@ -6826,7 +6832,7 @@
       </c>
       <c r="AO55" s="4"/>
       <c r="AP55" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ55" s="4"/>
       <c r="AR55" s="4"/>
@@ -6920,7 +6926,7 @@
       </c>
       <c r="AO56" s="4"/>
       <c r="AP56" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ56" s="4"/>
       <c r="AR56" s="4"/>
@@ -7022,7 +7028,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ57" s="4"/>
       <c r="AR57" s="4"/>
@@ -7118,7 +7124,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ58" s="4"/>
       <c r="AR58" s="4"/>
@@ -7218,7 +7224,7 @@
       </c>
       <c r="AO59" s="4"/>
       <c r="AP59" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
@@ -7326,7 +7332,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ60" s="4"/>
       <c r="AR60" s="4"/>
@@ -7430,7 +7436,7 @@
       </c>
       <c r="AO61" s="4"/>
       <c r="AP61" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ61" s="4"/>
       <c r="AR61" s="4"/>
@@ -7531,10 +7537,10 @@
         <v>9</v>
       </c>
       <c r="AO62" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP62" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ62" s="4"/>
       <c r="AR62" s="4"/>
@@ -7627,10 +7633,10 @@
         <v>9</v>
       </c>
       <c r="AO63" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AP63" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ63" s="4"/>
       <c r="AR63" s="4"/>
@@ -7732,7 +7738,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ64" s="4"/>
       <c r="AR64" s="4"/>
@@ -7827,10 +7833,10 @@
         <v>4</v>
       </c>
       <c r="AO65" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP65" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ65" s="4"/>
       <c r="AR65" s="4"/>
@@ -7926,10 +7932,10 @@
       </c>
       <c r="AO66" s="4"/>
       <c r="AP66" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AQ66" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR66" s="4"/>
       <c r="AS66" s="4">
@@ -8034,7 +8040,7 @@
       </c>
       <c r="AO67" s="4"/>
       <c r="AP67" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AQ67" s="4"/>
       <c r="AR67" s="4"/>
@@ -8137,10 +8143,10 @@
         <v>15</v>
       </c>
       <c r="AO68" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP68" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AQ68" s="4"/>
       <c r="AR68" s="4"/>
@@ -8154,7 +8160,7 @@
         <v>19</v>
       </c>
       <c r="AV68" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AW68" s="4"/>
     </row>
@@ -8250,10 +8256,10 @@
       </c>
       <c r="AO69" s="4"/>
       <c r="AP69" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ69" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AR69" s="4"/>
       <c r="AS69" s="4">
@@ -8356,7 +8362,7 @@
       </c>
       <c r="AO70" s="4"/>
       <c r="AP70" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ70" s="4">
         <v>0.5</v>
@@ -8446,7 +8452,7 @@
       </c>
       <c r="AO71" s="4"/>
       <c r="AP71" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ71" s="4">
         <v>0.5</v>
@@ -8546,7 +8552,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ72" s="4">
         <v>0.5</v>
@@ -8642,7 +8648,7 @@
       </c>
       <c r="AO73" s="4"/>
       <c r="AP73" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AQ73" s="4"/>
       <c r="AR73" s="4"/>
@@ -8735,10 +8741,10 @@
         <v>11</v>
       </c>
       <c r="AO74" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP74" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ74" s="4">
         <v>0.5</v>
@@ -8834,10 +8840,10 @@
         <v>0.5</v>
       </c>
       <c r="AP75" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AQ75" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4">
@@ -8940,7 +8946,7 @@
       </c>
       <c r="AO76" s="4"/>
       <c r="AP76" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AQ76" s="4"/>
       <c r="AR76" s="4"/>
@@ -9036,7 +9042,7 @@
       </c>
       <c r="AO77" s="4"/>
       <c r="AP77" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AQ77" s="4"/>
       <c r="AR77" s="4"/>
@@ -9130,10 +9136,10 @@
       </c>
       <c r="AO78" s="4"/>
       <c r="AP78" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AQ78" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR78" s="4"/>
       <c r="AS78" s="4">
@@ -9224,7 +9230,7 @@
       </c>
       <c r="AO79" s="4"/>
       <c r="AP79" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ79" s="4"/>
       <c r="AR79" s="4"/>
@@ -9312,7 +9318,7 @@
       </c>
       <c r="AO80" s="4"/>
       <c r="AP80" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ80" s="4">
         <v>0.5</v>
@@ -9412,10 +9418,10 @@
       </c>
       <c r="AO81" s="4"/>
       <c r="AP81" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ81" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR81" s="4"/>
       <c r="AS81" s="4">
@@ -9604,10 +9610,10 @@
       </c>
       <c r="AO83" s="4"/>
       <c r="AP83" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ83" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR83" s="4"/>
       <c r="AS83" s="4">
@@ -9701,13 +9707,13 @@
         <v>6</v>
       </c>
       <c r="AO84" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP84" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ84" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR84" s="4"/>
       <c r="AS84" s="4">
@@ -9804,7 +9810,7 @@
       </c>
       <c r="AO85" s="4"/>
       <c r="AP85" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ85" s="4"/>
       <c r="AR85" s="4"/>
@@ -9902,7 +9908,7 @@
       </c>
       <c r="AO86" s="4"/>
       <c r="AP86" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ86" s="4"/>
       <c r="AR86" s="4"/>
@@ -10000,7 +10006,7 @@
       </c>
       <c r="AO87" s="4"/>
       <c r="AP87" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ87" s="4"/>
       <c r="AR87" s="4"/>
@@ -10094,7 +10100,7 @@
       </c>
       <c r="AO88" s="4"/>
       <c r="AP88" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AQ88" s="4"/>
       <c r="AR88" s="4"/>
@@ -10188,7 +10194,7 @@
       </c>
       <c r="AO89" s="4"/>
       <c r="AP89" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ89" s="4"/>
       <c r="AR89" s="4"/>
@@ -10286,7 +10292,7 @@
       </c>
       <c r="AO90" s="4"/>
       <c r="AP90" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AQ90" s="4"/>
       <c r="AR90" s="4"/>
@@ -10384,10 +10390,10 @@
       </c>
       <c r="AO91" s="4"/>
       <c r="AP91" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ91" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AR91" s="4"/>
       <c r="AS91" s="4">
@@ -10400,7 +10406,7 @@
         <v>19</v>
       </c>
       <c r="AV91" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AW91" s="4"/>
     </row>
@@ -10482,10 +10488,10 @@
       </c>
       <c r="AO92" s="4"/>
       <c r="AP92" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AQ92" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR92" s="4"/>
       <c r="AS92" s="4">
@@ -10577,10 +10583,10 @@
         <v>5</v>
       </c>
       <c r="AO93" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP93" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ93" s="4"/>
       <c r="AR93" s="4"/>
@@ -10671,10 +10677,10 @@
         <v>11</v>
       </c>
       <c r="AO94" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP94" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ94" s="4"/>
       <c r="AR94" s="4"/>
@@ -10768,7 +10774,7 @@
         <v>0.5</v>
       </c>
       <c r="AP95" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ95" s="4"/>
       <c r="AR95" s="4"/>
@@ -10875,10 +10881,10 @@
         <v>9</v>
       </c>
       <c r="AO96" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AP96" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ96" s="4"/>
       <c r="AR96" s="4"/>
@@ -10975,10 +10981,10 @@
         <v>11</v>
       </c>
       <c r="AO97" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP97" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AQ97" s="4"/>
       <c r="AR97" s="4"/>
@@ -11078,7 +11084,7 @@
       </c>
       <c r="AO98" s="4"/>
       <c r="AP98" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ98" s="4"/>
       <c r="AR98" s="4"/>
@@ -11176,7 +11182,7 @@
       </c>
       <c r="AO99" s="4"/>
       <c r="AP99" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AQ99" s="4">
         <v>0.5</v>
@@ -11192,7 +11198,7 @@
         <v>19</v>
       </c>
       <c r="AV99" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AW99" s="4"/>
     </row>
@@ -11380,7 +11386,7 @@
       </c>
       <c r="AO101" s="4"/>
       <c r="AP101" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AQ101" s="4"/>
       <c r="AR101" s="4"/>
@@ -11394,7 +11400,7 @@
         <v>22</v>
       </c>
       <c r="AV101" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AW101" s="4"/>
     </row>
@@ -11484,10 +11490,10 @@
       </c>
       <c r="AO102" s="4"/>
       <c r="AP102" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AQ102" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AR102" s="4"/>
       <c r="AS102" s="4">
@@ -11582,10 +11588,10 @@
       </c>
       <c r="AO103" s="4"/>
       <c r="AP103" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AQ103" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR103" s="4"/>
       <c r="AS103" s="4">
@@ -11677,13 +11683,13 @@
         <v>24</v>
       </c>
       <c r="AO104" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AP104" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ104" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AR104" s="4"/>
       <c r="AS104" s="4">
@@ -11783,13 +11789,13 @@
         <v>19</v>
       </c>
       <c r="AO105" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AP105" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AQ105" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AR105" s="4"/>
       <c r="AS105" s="4">
@@ -11806,7 +11812,7 @@
     </row>
     <row r="106" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B106">
         <v>42.483277000000001</v>
@@ -11815,20 +11821,20 @@
         <v>43.230452999999898</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6">
         <v>9.2799999999999994</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="L106" s="6">
         <v>3.1</v>
@@ -11909,7 +11915,7 @@
     </row>
     <row r="107" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B107">
         <v>42.477272999999897</v>
@@ -11918,7 +11924,7 @@
         <v>43.231789999999897</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E107" s="6">
         <v>0.12</v>
@@ -11931,7 +11937,7 @@
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J107" s="6">
         <v>1.41</v>
@@ -12026,7 +12032,7 @@
     </row>
     <row r="108" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B108">
         <v>42.475268999999898</v>
@@ -12035,7 +12041,7 @@
         <v>43.232179000000002</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E108" s="6">
         <v>1.34</v>
@@ -12047,7 +12053,7 @@
         <v>246.2</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I108" s="6">
         <v>7.0000000000000007E-2</v>
@@ -12135,7 +12141,7 @@
     </row>
     <row r="109" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B109">
         <v>42.474556</v>
@@ -12144,7 +12150,7 @@
         <v>43.232371999999899</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E109" s="6">
         <v>0.96</v>
@@ -12164,7 +12170,7 @@
         <v>1.88</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M109" s="6">
         <v>0.23</v>
@@ -12238,7 +12244,7 @@
     </row>
     <row r="110" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B110">
         <v>42.464446000000002</v>
@@ -12247,7 +12253,7 @@
         <v>43.237523000000003</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E110" s="6">
         <v>0.64</v>
@@ -12347,7 +12353,7 @@
     </row>
     <row r="111" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B111">
         <v>42.464852999999898</v>
@@ -12356,7 +12362,7 @@
         <v>43.236863</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E111" s="6">
         <v>0.92</v>
@@ -12395,7 +12401,7 @@
       </c>
       <c r="R111" s="6"/>
       <c r="S111" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T111" s="6">
         <v>1.4</v>
@@ -12454,7 +12460,7 @@
     </row>
     <row r="112" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B112">
         <v>42.467249000000002</v>
@@ -12463,7 +12469,7 @@
         <v>43.235874000000003</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E112" s="6">
         <v>0.78</v>
@@ -12503,7 +12509,7 @@
         <v>1.3</v>
       </c>
       <c r="T112" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="U112" s="6">
         <v>0.03</v>
@@ -12565,7 +12571,7 @@
     </row>
     <row r="113" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B113">
         <v>42.468364999999899</v>
@@ -12574,7 +12580,7 @@
         <v>43.233657999999899</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E113" s="6">
         <v>1.65</v>
@@ -12589,7 +12595,7 @@
         <v>0.02</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6">
@@ -12680,7 +12686,7 @@
     </row>
     <row r="114" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B114">
         <v>42.471519000000001</v>
@@ -12689,7 +12695,7 @@
         <v>43.232047000000001</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E114" s="6">
         <v>0.2</v>
@@ -12791,7 +12797,7 @@
     </row>
     <row r="115" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B115">
         <v>42.492564000000002</v>
@@ -12845,7 +12851,7 @@
         <v>0.02</v>
       </c>
       <c r="S115" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="T115" s="6">
         <v>1.2</v>
@@ -12906,7 +12912,7 @@
     </row>
     <row r="116" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B116">
         <v>42.495645000000003</v>
@@ -12915,7 +12921,7 @@
         <v>43.222166000000001</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E116" s="6">
         <v>0.34</v>
@@ -13012,7 +13018,7 @@
     </row>
     <row r="117" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B117">
         <v>42.495595000000002</v>
@@ -13021,7 +13027,7 @@
         <v>43.221879999999899</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E117" s="6">
         <v>0.17</v>
@@ -13058,10 +13064,10 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
       <c r="S117" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U117" s="6"/>
       <c r="V117" s="6">
@@ -13123,7 +13129,7 @@
     </row>
     <row r="118" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B118">
         <v>42.495238000000001</v>
@@ -13132,7 +13138,7 @@
         <v>43.221716000000001</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E118" s="6">
         <v>0.86</v>
@@ -13226,7 +13232,7 @@
     </row>
     <row r="119" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B119">
         <v>42.494917000000001</v>
@@ -13235,7 +13241,7 @@
         <v>43.221516000000001</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E119" s="6">
         <v>0.52</v>
@@ -13275,7 +13281,7 @@
         <v>1.3</v>
       </c>
       <c r="T119" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="U119" s="6"/>
       <c r="V119" s="6">
@@ -13335,7 +13341,7 @@
     </row>
     <row r="120" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B120">
         <v>42.494281000000001</v>
@@ -13344,7 +13350,7 @@
         <v>43.221173</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E120" s="6">
         <v>0.73</v>
@@ -13360,7 +13366,7 @@
         <v>0.5</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K120" s="6">
         <v>7.24</v>
@@ -13438,7 +13444,7 @@
     </row>
     <row r="121" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B121">
         <v>42.490668999999897</v>
@@ -13547,7 +13553,7 @@
     </row>
     <row r="122" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B122">
         <v>42.492106</v>
@@ -13594,7 +13600,7 @@
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="U122" s="6">
         <v>0.01</v>
@@ -13654,7 +13660,7 @@
     </row>
     <row r="123" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B123">
         <v>42.493271999999898</v>
@@ -13759,7 +13765,7 @@
     </row>
     <row r="124" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B124">
         <v>42.493332000000002</v>
@@ -13777,7 +13783,7 @@
         <v>3.78</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
